--- a/vulnerable_pops_census_codes.xlsx
+++ b/vulnerable_pops_census_codes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvoorhees\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvoorhees\census_know\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="434">
   <si>
     <t>code</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Total!!Estimate!!SELECTED AGE CATEGORIES!!65 years and over</t>
   </si>
   <si>
-    <t>S1701_C03_001</t>
-  </si>
-  <si>
     <t xml:space="preserve">percent of individuals with poverty level determined that fall under the federal poverty line </t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>Total!!Estimate!!MEANS OF TRANSPORTATION TO WORK!!Public transportation (excluding taxicab)</t>
   </si>
   <si>
-    <t>S0801_C01_001</t>
-  </si>
-  <si>
     <t>Total!!Estimate!!Workers 16 years and over</t>
   </si>
   <si>
@@ -242,9 +236,6 @@
     <t>Total!!Estimate!!INDUSTRY!!Construction</t>
   </si>
   <si>
-    <t>S0802_C01_054</t>
-  </si>
-  <si>
     <t>Total!!Estimate!!INDUSTRY!!Transportation and warehousing, and utilities</t>
   </si>
   <si>
@@ -263,9 +254,6 @@
     <t>S0802_C01_042E</t>
   </si>
   <si>
-    <t>S0802_C01_040</t>
-  </si>
-  <si>
     <t>Total!!Estimate!!POVERTY STATUS IN THE PAST 12 MONTHS!!Workers 16 years and over for whom poverty status is determined!!100 to 149 percent of the poverty level</t>
   </si>
   <si>
@@ -428,9 +416,6 @@
     <t>With a disability!!Estimate!!DISABILITY TYPE BY DETAILED AGE!!With an ambulatory difficulty!!Population 65 years and over</t>
   </si>
   <si>
-    <t>S1810_C02_057E</t>
-  </si>
-  <si>
     <t>S1810_C02_056E</t>
   </si>
   <si>
@@ -455,12 +440,6 @@
     <t>With a disability!!Estimate!!DISABILITY TYPE BY DETAILED AGE!!With an ambulatory difficulty!!Population under 18 years</t>
   </si>
   <si>
-    <t>With a disability!!Estimate!!DISABILITY TYPE BY DETAILED AGE!!With an ambulatory difficulty</t>
-  </si>
-  <si>
-    <t>S1810_C02_049E</t>
-  </si>
-  <si>
     <t>S1810_C02_044E</t>
   </si>
   <si>
@@ -470,9 +449,6 @@
     <t>With a disability!!Estimate!!DISABILITY TYPE BY DETAILED AGE!!With a cognitive difficulty!!Population 65 years and over!!Population 75 years and over</t>
   </si>
   <si>
-    <t>With a disability!!Estimate!!DISABILITY TYPE BY DETAILED AGE!!With a cognitive difficulty!!Population 65 years and over</t>
-  </si>
-  <si>
     <t>S1810_C02_030E</t>
   </si>
   <si>
@@ -518,9 +494,6 @@
     <t>S1810_C01_001E</t>
   </si>
   <si>
-    <t>S1810_C02_029</t>
-  </si>
-  <si>
     <t>With a disability!!Estimate!!DISABILITY TYPE BY DETAILED AGE!!With a vision difficulty</t>
   </si>
   <si>
@@ -692,9 +665,6 @@
     <t>Percent with a disability!!Estimate!!DISABILITY TYPE BY DETAILED AGE!!With a hearing difficulty!!Population 65 years and over!!Population 75 years and over'</t>
   </si>
   <si>
-    <t>S1810_C03_018</t>
-  </si>
-  <si>
     <t>Percent with a disability!!Estimate!!AGE!!75 years and over</t>
   </si>
   <si>
@@ -770,21 +740,9 @@
     <t>Total!!Estimate!!DISABILITY TYPE BY DETAILED AGE!!With a vision difficulty!!Population 65 years and over!!Population 75 years and over</t>
   </si>
   <si>
-    <t>S1810_C01_039E</t>
-  </si>
-  <si>
-    <t>Total!!Estimate!!DISABILITY TYPE BY DETAILED AGE!!With a cognitive difficulty</t>
-  </si>
-  <si>
     <t>With a disability!!Estimate!!AGE!!75 years and over</t>
   </si>
   <si>
-    <t>S1810_C01_047E</t>
-  </si>
-  <si>
-    <t>Total!!Estimate!!DISABILITY TYPE BY DETAILED AGE!!With an ambulatory difficulty</t>
-  </si>
-  <si>
     <t>S1810_C01_046E</t>
   </si>
   <si>
@@ -821,12 +779,6 @@
     <t>Total!!Estimate!!DISABILITY TYPE BY DETAILED AGE!!With an ambulatory difficulty!!Population 65 years and over!!Population 75 years and over</t>
   </si>
   <si>
-    <t>S1810_C01_055E</t>
-  </si>
-  <si>
-    <t>Total!!Estimate!!DISABILITY TYPE BY DETAILED AGE!!With a self-care difficulty</t>
-  </si>
-  <si>
     <t>S1810_C01_056E</t>
   </si>
   <si>
@@ -839,15 +791,6 @@
     <t>Total!!Estimate!!DISABILITY TYPE BY DETAILED AGE!!With a self-care difficulty!!Population 65 years and over!!Population 75 years and over</t>
   </si>
   <si>
-    <t>S1810_C01_063E</t>
-  </si>
-  <si>
-    <t>Total!!Estimate!!DISABILITY TYPE BY DETAILED AGE!!With an independent living difficulty</t>
-  </si>
-  <si>
-    <t>S1810_C01_060</t>
-  </si>
-  <si>
     <t>Total!!Estimate!!DISABILITY TYPE BY DETAILED AGE!!With a self-care difficulty!!Population 65 years and over</t>
   </si>
   <si>
@@ -1350,13 +1293,46 @@
   </si>
   <si>
     <t>A measure derived by dividing the population 65 years and over by the 18 to 64 years population and multiplying by 100</t>
+  </si>
+  <si>
+    <t>Estimate!!With a disability!!Subject!!DISABILITY TYPE BY DETAILED AGE!!With an ambulatory difficulty!!Population under 18 years</t>
+  </si>
+  <si>
+    <t>S1810_C02_047E</t>
+  </si>
+  <si>
+    <t>Estimate!!With a disability!!Subject!!DISABILITY TYPE BY DETAILED AGE!!With an ambulatory difficulty</t>
+  </si>
+  <si>
+    <t>Estimate!!With a disability!!Subject!!DISABILITY TYPE BY DETAILED AGE!!With a cognitive difficulty</t>
+  </si>
+  <si>
+    <t>S1701_C03_001E</t>
+  </si>
+  <si>
+    <t>S0801_C01_001E</t>
+  </si>
+  <si>
+    <t>S0802_C01_040E</t>
+  </si>
+  <si>
+    <t>S0802_C01_054E</t>
+  </si>
+  <si>
+    <t>S1810_C01_060E</t>
+  </si>
+  <si>
+    <t>S1810_C02_029E</t>
+  </si>
+  <si>
+    <t>S1810_C03_018E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1403,12 +1379,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1430,7 +1400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1465,7 +1435,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1782,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J180"/>
+  <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>3</v>
@@ -1828,7 +1801,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1845,7 +1818,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>9</v>
@@ -1870,7 +1843,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>13</v>
@@ -1895,7 +1868,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>16</v>
@@ -1922,7 +1895,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>20</v>
@@ -1949,7 +1922,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>23</v>
@@ -1962,7 +1935,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>427</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>6</v>
@@ -1974,245 +1947,245 @@
         <v>12</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="H10" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="D12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>6</v>
@@ -2224,22 +2197,22 @@
         <v>12</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>6</v>
@@ -2251,22 +2224,22 @@
         <v>12</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>6</v>
@@ -2278,22 +2251,22 @@
         <v>12</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>6</v>
@@ -2305,22 +2278,22 @@
         <v>12</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>6</v>
@@ -2332,22 +2305,22 @@
         <v>12</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>6</v>
@@ -2359,22 +2332,22 @@
         <v>12</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>6</v>
@@ -2386,22 +2359,22 @@
         <v>12</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>72</v>
+        <v>430</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>6</v>
@@ -2413,22 +2386,22 @@
         <v>12</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>6</v>
@@ -2440,22 +2413,22 @@
         <v>12</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>6</v>
@@ -2467,22 +2440,22 @@
         <v>12</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J26"/>
     </row>
     <row r="27" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>6</v>
@@ -2494,22 +2467,22 @@
         <v>12</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J27"/>
     </row>
     <row r="28" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>6</v>
@@ -2521,22 +2494,22 @@
         <v>12</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J28"/>
     </row>
     <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>6</v>
@@ -2548,22 +2521,22 @@
         <v>12</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J29"/>
     </row>
     <row r="30" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>6</v>
@@ -2575,20 +2548,20 @@
         <v>12</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>6</v>
@@ -2600,22 +2573,22 @@
         <v>12</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J31"/>
     </row>
     <row r="32" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>6</v>
@@ -2627,22 +2600,22 @@
         <v>12</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J32"/>
     </row>
     <row r="33" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>6</v>
@@ -2654,22 +2627,22 @@
         <v>12</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J33"/>
     </row>
     <row r="34" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>6</v>
@@ -2681,22 +2654,22 @@
         <v>12</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J34"/>
     </row>
     <row r="35" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>6</v>
@@ -2708,22 +2681,22 @@
         <v>12</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J35"/>
     </row>
     <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>6</v>
@@ -2735,22 +2708,22 @@
         <v>12</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J36"/>
     </row>
     <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>6</v>
@@ -2762,22 +2735,22 @@
         <v>12</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J37"/>
     </row>
     <row r="38" spans="1:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>6</v>
@@ -2790,17 +2763,17 @@
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:10" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>6</v>
@@ -2813,17 +2786,17 @@
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="11" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:10" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>6</v>
@@ -2836,17 +2809,17 @@
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="11" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:10" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>6</v>
@@ -2859,17 +2832,17 @@
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="11" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:10" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>6</v>
@@ -2882,17 +2855,17 @@
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="11" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>6</v>
@@ -2905,17 +2878,17 @@
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="11" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>6</v>
@@ -2928,17 +2901,17 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="11" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>6</v>
@@ -2951,17 +2924,17 @@
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="11" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:10" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>6</v>
@@ -2974,17 +2947,17 @@
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="11" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>6</v>
@@ -2997,17 +2970,17 @@
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>6</v>
@@ -3020,17 +2993,17 @@
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="11" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>6</v>
@@ -3043,17 +3016,17 @@
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="11" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>6</v>
@@ -3066,17 +3039,17 @@
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="11" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>6</v>
@@ -3089,17 +3062,17 @@
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>6</v>
@@ -3112,17 +3085,17 @@
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="11" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>6</v>
@@ -3135,17 +3108,17 @@
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="11" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>6</v>
@@ -3158,17 +3131,17 @@
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="11" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>6</v>
@@ -3181,17 +3154,17 @@
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>6</v>
@@ -3204,17 +3177,17 @@
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>6</v>
@@ -3227,17 +3200,17 @@
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="11" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>263</v>
+        <v>431</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>6</v>
@@ -3250,17 +3223,17 @@
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="11" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>6</v>
@@ -3273,17 +3246,17 @@
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="11" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>6</v>
@@ -3296,17 +3269,17 @@
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="11" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>6</v>
@@ -3319,17 +3292,17 @@
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="11" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>269</v>
+        <v>177</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>6</v>
@@ -3342,17 +3315,17 @@
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="11" t="s">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>271</v>
+        <v>173</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>6</v>
@@ -3365,17 +3338,17 @@
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="11" t="s">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="I63" s="8"/>
     </row>
-    <row r="64" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>6</v>
@@ -3388,17 +3361,17 @@
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="11" t="s">
-        <v>276</v>
+        <v>175</v>
       </c>
       <c r="I64" s="8"/>
     </row>
-    <row r="65" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>277</v>
+        <v>170</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>6</v>
@@ -3411,17 +3384,17 @@
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="11" t="s">
-        <v>278</v>
+        <v>169</v>
       </c>
       <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>6</v>
@@ -3434,17 +3407,17 @@
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="11" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="I66" s="8"/>
     </row>
-    <row r="67" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>6</v>
@@ -3457,17 +3430,17 @@
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="11" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>6</v>
@@ -3480,17 +3453,17 @@
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="11" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="I68" s="8"/>
     </row>
-    <row r="69" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>6</v>
@@ -3503,17 +3476,17 @@
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="11" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>6</v>
@@ -3526,17 +3499,17 @@
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="11" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>6</v>
@@ -3549,17 +3522,17 @@
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="11" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="I71" s="8"/>
     </row>
-    <row r="72" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>6</v>
@@ -3572,17 +3545,17 @@
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="11" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="I72" s="8"/>
     </row>
-    <row r="73" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
-        <v>170</v>
+    <row r="73" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>432</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>6</v>
@@ -3595,17 +3568,17 @@
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="11" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="I73" s="8"/>
     </row>
-    <row r="74" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>6</v>
@@ -3618,17 +3591,17 @@
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="11" t="s">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>6</v>
@@ -3641,17 +3614,17 @@
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="11" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>6</v>
@@ -3664,17 +3637,17 @@
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="11" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
-        <v>164</v>
+      <c r="A77" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>6</v>
@@ -3687,17 +3660,17 @@
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="11" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="I77" s="8"/>
     </row>
-    <row r="78" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>6</v>
@@ -3710,17 +3683,17 @@
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>6</v>
@@ -3733,17 +3706,17 @@
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="11" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="I79" s="8"/>
     </row>
-    <row r="80" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
-        <v>157</v>
+    <row r="80" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>6</v>
@@ -3756,17 +3729,17 @@
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="G80" s="8"/>
-      <c r="H80" s="11" t="s">
-        <v>160</v>
+      <c r="H80" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="I80" s="8"/>
     </row>
-    <row r="81" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>6</v>
@@ -3779,17 +3752,17 @@
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="G81" s="8"/>
-      <c r="H81" s="11" t="s">
-        <v>158</v>
+      <c r="H81" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>6</v>
@@ -3802,17 +3775,17 @@
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G82" s="8"/>
       <c r="H82" s="11" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="I82" s="8"/>
     </row>
-    <row r="83" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>6</v>
@@ -3825,17 +3798,17 @@
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="11" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="I83" s="8"/>
     </row>
-    <row r="84" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>6</v>
@@ -3848,17 +3821,17 @@
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="G84" s="8"/>
-      <c r="H84" s="9" t="s">
-        <v>166</v>
+      <c r="H84" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="I84" s="8"/>
     </row>
-    <row r="85" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="s">
-        <v>140</v>
+    <row r="85" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>424</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>6</v>
@@ -3871,17 +3844,17 @@
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="G85" s="8"/>
-      <c r="H85" s="11" t="s">
-        <v>142</v>
+      <c r="H85" s="3" t="s">
+        <v>425</v>
       </c>
       <c r="I85" s="8"/>
     </row>
-    <row r="86" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>6</v>
@@ -3894,17 +3867,17 @@
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="11" t="s">
-        <v>147</v>
+        <v>423</v>
       </c>
       <c r="I86" s="8"/>
     </row>
     <row r="87" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>6</v>
@@ -3917,17 +3890,17 @@
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>6</v>
@@ -3940,17 +3913,17 @@
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="11" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>6</v>
@@ -3963,17 +3936,17 @@
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="11" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
-        <v>137</v>
+      <c r="A90" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>6</v>
@@ -3986,17 +3959,17 @@
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G90" s="8"/>
-      <c r="H90" s="11" t="s">
-        <v>139</v>
+      <c r="H90" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="I90" s="8"/>
     </row>
-    <row r="91" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>6</v>
@@ -4009,17 +3982,17 @@
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G91" s="8"/>
       <c r="H91" s="11" t="s">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="I91" s="8"/>
     </row>
     <row r="92" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>6</v>
@@ -4032,17 +4005,17 @@
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="11" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I92" s="8"/>
     </row>
-    <row r="93" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
-        <v>125</v>
+    <row r="93" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>6</v>
@@ -4055,17 +4028,17 @@
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G93" s="8"/>
-      <c r="H93" s="9" t="s">
-        <v>126</v>
+      <c r="H93" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="I93" s="8"/>
     </row>
-    <row r="94" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>6</v>
@@ -4078,86 +4051,86 @@
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="11" t="s">
-        <v>299</v>
+        <v>129</v>
       </c>
       <c r="I94" s="8"/>
     </row>
     <row r="95" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="11" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="I95" s="8"/>
     </row>
-    <row r="96" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="11" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="I96" s="8"/>
     </row>
-    <row r="97" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="11" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="I97" s="8"/>
     </row>
-    <row r="98" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>6</v>
@@ -4170,17 +4143,17 @@
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="11" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="I98" s="8"/>
     </row>
     <row r="99" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>210</v>
+        <v>433</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>6</v>
@@ -4193,17 +4166,17 @@
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G99" s="8"/>
-      <c r="H99" s="11" t="s">
-        <v>211</v>
+      <c r="H99" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="I99" s="8"/>
     </row>
-    <row r="100" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>6</v>
@@ -4216,17 +4189,17 @@
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="11" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I100" s="8"/>
     </row>
-    <row r="101" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>297</v>
+        <v>207</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>6</v>
@@ -4239,17 +4212,17 @@
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="11" t="s">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="I101" s="8"/>
     </row>
-    <row r="102" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>6</v>
@@ -4262,17 +4235,17 @@
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G102" s="8"/>
-      <c r="H102" s="12" t="s">
-        <v>223</v>
+      <c r="H102" s="11" t="s">
+        <v>210</v>
       </c>
       <c r="I102" s="8"/>
     </row>
-    <row r="103" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>6</v>
@@ -4285,17 +4258,17 @@
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I103" s="8"/>
     </row>
-    <row r="104" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>6</v>
@@ -4308,17 +4281,17 @@
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="11" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="I104" s="8"/>
     </row>
-    <row r="105" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>6</v>
@@ -4331,17 +4304,17 @@
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="11" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="I105" s="8"/>
     </row>
-    <row r="106" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>6</v>
@@ -4354,17 +4327,17 @@
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="11" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="I106" s="8"/>
     </row>
-    <row r="107" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>6</v>
@@ -4377,17 +4350,17 @@
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I107" s="8"/>
     </row>
-    <row r="108" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>6</v>
@@ -4400,17 +4373,17 @@
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I108" s="8"/>
     </row>
     <row r="109" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>6</v>
@@ -4423,17 +4396,17 @@
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="11" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I109" s="8"/>
     </row>
-    <row r="110" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>6</v>
@@ -4446,17 +4419,17 @@
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="I110" s="8"/>
+    </row>
+    <row r="111" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A111" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="I110" s="8"/>
-    </row>
-    <row r="111" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
-        <v>196</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>6</v>
@@ -4469,17 +4442,17 @@
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I111" s="8"/>
     </row>
     <row r="112" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>6</v>
@@ -4492,17 +4465,17 @@
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I112" s="8"/>
     </row>
     <row r="113" spans="1:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>6</v>
@@ -4515,17 +4488,17 @@
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I113" s="8"/>
     </row>
-    <row r="114" spans="1:10" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>6</v>
@@ -4538,17 +4511,17 @@
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="11" t="s">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="I114" s="8"/>
     </row>
-    <row r="115" spans="1:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>6</v>
@@ -4561,17 +4534,17 @@
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G115" s="8"/>
       <c r="H115" s="11" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="I115" s="8"/>
     </row>
     <row r="116" spans="1:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>6</v>
@@ -4584,17 +4557,17 @@
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="G116" s="8"/>
       <c r="H116" s="11" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="I116" s="8"/>
     </row>
     <row r="117" spans="1:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>6</v>
@@ -4607,17 +4580,17 @@
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G117" s="8"/>
       <c r="H117" s="11" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="I117" s="8"/>
     </row>
-    <row r="118" spans="1:10" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>6</v>
@@ -4630,17 +4603,17 @@
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="11" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="I118" s="8"/>
     </row>
-    <row r="119" spans="1:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>6</v>
@@ -4653,17 +4626,17 @@
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="8" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G119" s="8"/>
       <c r="H119" s="11" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="I119" s="8"/>
     </row>
     <row r="120" spans="1:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>6</v>
@@ -4676,17 +4649,17 @@
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="G120" s="8"/>
       <c r="H120" s="11" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="I120" s="8"/>
     </row>
-    <row r="121" spans="1:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>6</v>
@@ -4699,17 +4672,17 @@
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G121" s="8"/>
       <c r="H121" s="11" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="I121" s="8"/>
     </row>
     <row r="122" spans="1:10" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>6</v>
@@ -4722,108 +4695,109 @@
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="11" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="I122" s="8"/>
     </row>
-    <row r="123" spans="1:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
-        <v>285</v>
+    <row r="123" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E123" s="8"/>
       <c r="F123" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="G123" s="8"/>
-      <c r="H123" s="11" t="s">
+      <c r="H123" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="I123" s="8"/>
+      <c r="J123"/>
+    </row>
+    <row r="124" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="I123" s="8"/>
-    </row>
-    <row r="124" spans="1:10" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
-        <v>283</v>
-      </c>
       <c r="B124" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E124" s="8"/>
       <c r="F124" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J124"/>
+    </row>
+    <row r="125" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J125"/>
+    </row>
+    <row r="126" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="G124" s="8"/>
-      <c r="H124" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="I124" s="8"/>
-    </row>
-    <row r="125" spans="1:10" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G125" s="8"/>
-      <c r="H125" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="I125" s="8"/>
-    </row>
-    <row r="126" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>319</v>
-      </c>
       <c r="H126" s="9" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126"/>
     </row>
-    <row r="127" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>6</v>
@@ -4835,19 +4809,17 @@
         <v>12</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="I127" s="7" t="s">
-        <v>303</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="I127" s="8"/>
       <c r="J127"/>
     </row>
-    <row r="128" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
-        <v>307</v>
+    <row r="128" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>6</v>
@@ -4859,19 +4831,17 @@
         <v>12</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="I128" s="7" t="s">
-        <v>303</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="I128" s="8"/>
       <c r="J128"/>
     </row>
     <row r="129" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>6</v>
@@ -4883,17 +4853,17 @@
         <v>12</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129"/>
     </row>
     <row r="130" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
-        <v>311</v>
+      <c r="A130" s="11" t="s">
+        <v>298</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>6</v>
@@ -4905,20 +4875,20 @@
         <v>12</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>312</v>
+        <v>302</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130"/>
     </row>
     <row r="131" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>7</v>
@@ -4927,20 +4897,20 @@
         <v>12</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131"/>
     </row>
-    <row r="132" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
-        <v>315</v>
+    <row r="132" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>310</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>7</v>
@@ -4949,64 +4919,66 @@
         <v>12</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>316</v>
+        <v>313</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>311</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132"/>
     </row>
-    <row r="133" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="I133" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H134" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="H133" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="I133" s="8"/>
-      <c r="J133"/>
-    </row>
-    <row r="134" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="H134" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="I134" s="8"/>
-      <c r="J134"/>
     </row>
     <row r="135" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>7</v>
@@ -5015,20 +4987,18 @@
         <v>12</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="I135" s="8"/>
-      <c r="J135"/>
+        <v>325</v>
+      </c>
     </row>
     <row r="136" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>7</v>
@@ -5037,24 +5007,21 @@
         <v>12</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>96</v>
+        <v>324</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>7</v>
@@ -5063,18 +5030,24 @@
         <v>12</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>336</v>
+        <v>321</v>
+      </c>
+      <c r="I137" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>7</v>
@@ -5083,228 +5056,219 @@
         <v>12</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>344</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="J138" s="1"/>
     </row>
     <row r="139" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B139" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H139" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="H139" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="I139" s="11" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B140" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="H140" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="I140" s="11" t="s">
+      <c r="B145" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="H148" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="J140" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A141" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="H141" s="11" t="s">
+    </row>
+    <row r="149" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
         <v>348</v>
-      </c>
-      <c r="J141" s="1"/>
-    </row>
-    <row r="142" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="H142" s="11" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="H143" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="I143" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="H144" s="11" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="H145" s="11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="H147" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="11" t="s">
-        <v>361</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>6</v>
@@ -5316,55 +5280,55 @@
         <v>8</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="H150" s="11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>6</v>
@@ -5376,78 +5340,87 @@
         <v>8</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F153" s="8" t="s">
-        <v>375</v>
-      </c>
       <c r="H153" s="11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="I153" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>375</v>
+        <v>369</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>388</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="H155" s="11" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>7</v>
@@ -5456,21 +5429,21 @@
         <v>12</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>7</v>
@@ -5479,21 +5452,21 @@
         <v>12</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="G157" s="8" t="s">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="H157" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="I157" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>7</v>
@@ -5502,87 +5475,78 @@
         <v>12</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>388</v>
+        <v>369</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="I158" s="11" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>327</v>
+        <v>6</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>388</v>
+        <v>98</v>
       </c>
       <c r="H159" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="I159" s="11" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>327</v>
+        <v>6</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>388</v>
+        <v>98</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="I160" s="11" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>327</v>
+        <v>6</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="G161" s="8" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>6</v>
@@ -5594,235 +5558,175 @@
         <v>12</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>102</v>
+        <v>378</v>
       </c>
       <c r="H162" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="H163" s="11" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="11" t="s">
+      <c r="I163" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H163" s="11" t="s">
+      <c r="H164" s="11" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="11" t="s">
+      <c r="I164" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="B164" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F164" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="H164" s="11" t="s">
+      <c r="H165" s="11" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="11" t="s">
+      <c r="I165" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F165" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="H165" s="11" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>408</v>
+        <v>395</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="H166" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="I166" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="G169" s="8" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="H169" s="11" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="H170" s="11" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H171" s="11" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="H173" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A174" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="H174" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+      <c r="A175" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="G175" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="H175" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+      <c r="A176" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="G176" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="H173" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="I173" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="H174" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="I174" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="H175" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="I175" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="11" t="s">
-        <v>428</v>
-      </c>
       <c r="H176" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="I176" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>430</v>
+        <v>416</v>
+      </c>
+      <c r="G177" s="15" t="s">
+        <v>420</v>
       </c>
       <c r="H177" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="I177" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="G178" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="H178" s="11" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="G179" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="H179" s="11" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="G180" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="H180" s="11" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
